--- a/NETWORK_ANALYSIS_SECOND_SEMESETER_BMED_2023/Copy of Award_List_CIRCUIT_ANALYSIS__2023_BMED_SECOND_SEMESTER.xlsx
+++ b/NETWORK_ANALYSIS_SECOND_SEMESETER_BMED_2023/Copy of Award_List_CIRCUIT_ANALYSIS__2023_BMED_SECOND_SEMESTER.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" tabRatio="886" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" tabRatio="886" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions for Faculty Member" sheetId="24" r:id="rId1"/>
@@ -299,166 +299,82 @@
     <t>Mir Sher Zanam</t>
   </si>
   <si>
-    <t>23BME01</t>
-  </si>
-  <si>
     <t>Summaya Bashir</t>
-  </si>
-  <si>
-    <t>23BME02</t>
   </si>
   <si>
     <t>Wajia</t>
   </si>
   <si>
-    <t>23BME03</t>
-  </si>
-  <si>
     <t>Adnan</t>
-  </si>
-  <si>
-    <t>23BME04</t>
   </si>
   <si>
     <t>Faiz Muhammad</t>
   </si>
   <si>
-    <t>23BME05</t>
-  </si>
-  <si>
     <t>Abdul Wahid</t>
-  </si>
-  <si>
-    <t>23BME06</t>
   </si>
   <si>
     <t>Farhana</t>
   </si>
   <si>
-    <t>23BME07</t>
-  </si>
-  <si>
     <t>Sahar Alamgheer</t>
-  </si>
-  <si>
-    <t>23BME08</t>
   </si>
   <si>
     <t>BiBi Anzal</t>
   </si>
   <si>
-    <t>23BME09</t>
-  </si>
-  <si>
     <t>Samiullah</t>
-  </si>
-  <si>
-    <t>23BME10</t>
   </si>
   <si>
     <t>Mohammad Youns</t>
   </si>
   <si>
-    <t>23BME11</t>
-  </si>
-  <si>
     <t>Adil Jattak</t>
-  </si>
-  <si>
-    <t>23BME12</t>
   </si>
   <si>
     <t>Shees Ahmad</t>
   </si>
   <si>
-    <t>23BME14</t>
-  </si>
-  <si>
     <t>Anum Rauf</t>
-  </si>
-  <si>
-    <t>23BME15</t>
   </si>
   <si>
     <t>Simran Peer Bakhsh</t>
   </si>
   <si>
-    <t>23BME16</t>
-  </si>
-  <si>
     <t>Rashid Ali</t>
-  </si>
-  <si>
-    <t>23BME17</t>
   </si>
   <si>
     <t>Hafsa</t>
   </si>
   <si>
-    <t>23BME18</t>
-  </si>
-  <si>
     <t>Huma</t>
-  </si>
-  <si>
-    <t>23BME19</t>
-  </si>
-  <si>
-    <t>23BME21</t>
   </si>
   <si>
     <t>Zakria</t>
   </si>
   <si>
-    <t>23BME22</t>
-  </si>
-  <si>
     <t>Safia</t>
-  </si>
-  <si>
-    <t>23BME24</t>
   </si>
   <si>
     <t>Abdul Waheed</t>
   </si>
   <si>
-    <t>23BME25</t>
-  </si>
-  <si>
     <t>Atiq ur Rehman</t>
-  </si>
-  <si>
-    <t>23BME26</t>
   </si>
   <si>
     <t>Mahjabeen</t>
   </si>
   <si>
-    <t>23BME27</t>
-  </si>
-  <si>
     <t>Abdul Haleem</t>
-  </si>
-  <si>
-    <t>23BME29</t>
   </si>
   <si>
     <t>Aroosa</t>
   </si>
   <si>
-    <t>23BME31</t>
-  </si>
-  <si>
     <t>Muhammad Zaman</t>
   </si>
   <si>
-    <t>23BME32</t>
-  </si>
-  <si>
     <t>Shayan Nazir</t>
-  </si>
-  <si>
-    <t>23BME33</t>
   </si>
   <si>
     <t>BE BIOMEDICAL ENGINEERING</t>
@@ -486,6 +402,90 @@
   </si>
   <si>
     <t>Roll Number</t>
+  </si>
+  <si>
+    <t>22BME01</t>
+  </si>
+  <si>
+    <t>22BME02</t>
+  </si>
+  <si>
+    <t>22BME03</t>
+  </si>
+  <si>
+    <t>22BME04</t>
+  </si>
+  <si>
+    <t>22BME05</t>
+  </si>
+  <si>
+    <t>22BME06</t>
+  </si>
+  <si>
+    <t>22BME07</t>
+  </si>
+  <si>
+    <t>22BME08</t>
+  </si>
+  <si>
+    <t>22BME09</t>
+  </si>
+  <si>
+    <t>22BME10</t>
+  </si>
+  <si>
+    <t>22BME11</t>
+  </si>
+  <si>
+    <t>22BME12</t>
+  </si>
+  <si>
+    <t>22BME14</t>
+  </si>
+  <si>
+    <t>22BME15</t>
+  </si>
+  <si>
+    <t>22BME16</t>
+  </si>
+  <si>
+    <t>22BME17</t>
+  </si>
+  <si>
+    <t>22BME18</t>
+  </si>
+  <si>
+    <t>22BME19</t>
+  </si>
+  <si>
+    <t>22BME21</t>
+  </si>
+  <si>
+    <t>22BME22</t>
+  </si>
+  <si>
+    <t>22BME24</t>
+  </si>
+  <si>
+    <t>22BME25</t>
+  </si>
+  <si>
+    <t>22BME26</t>
+  </si>
+  <si>
+    <t>22BME27</t>
+  </si>
+  <si>
+    <t>22BME29</t>
+  </si>
+  <si>
+    <t>22BME31</t>
+  </si>
+  <si>
+    <t>22BME32</t>
+  </si>
+  <si>
+    <t>22BME33</t>
   </si>
 </sst>
 </file>
@@ -2401,8 +2401,8 @@
   </sheetPr>
   <dimension ref="A1:AI49"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="143" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="D3" s="143"/>
       <c r="E3" s="143"/>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="15" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>10</v>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="139" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="D5" s="139"/>
       <c r="E5" s="139"/>
@@ -2498,13 +2498,13 @@
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="142" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="F6" s="142"/>
       <c r="G6" s="142"/>
@@ -2696,10 +2696,10 @@
         <v>56</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>15</v>
@@ -2726,7 +2726,7 @@
         <v>62</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D16" s="81"/>
       <c r="E16" s="98"/>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="L16" s="36" t="str">
         <f t="shared" ref="L16:L29" si="1">$C16</f>
-        <v>23BME01</v>
+        <v>22BME01</v>
       </c>
       <c r="M16" s="36">
         <f t="shared" ref="M16:M33" si="2">E$13</f>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="P16" s="36" t="str">
         <f t="shared" ref="P16:P29" si="4">$C16</f>
-        <v>23BME01</v>
+        <v>22BME01</v>
       </c>
       <c r="Q16" s="36">
         <f t="shared" ref="Q16:Q33" si="5">F$13</f>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="T16" s="36" t="str">
         <f t="shared" ref="T16:T29" si="7">$C16</f>
-        <v>23BME01</v>
+        <v>22BME01</v>
       </c>
       <c r="U16" s="36">
         <f t="shared" ref="U16:U33" si="8">G$13</f>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="X16" s="36" t="str">
         <f t="shared" ref="X16:X29" si="10">$C16</f>
-        <v>23BME01</v>
+        <v>22BME01</v>
       </c>
       <c r="Y16" s="36">
         <f t="shared" ref="Y16:Y33" si="11">H$13</f>
@@ -2787,11 +2787,11 @@
       </c>
       <c r="AB16" s="36" t="str">
         <f t="shared" ref="AB16:AB29" si="13">$C16</f>
-        <v>23BME01</v>
+        <v>22BME01</v>
       </c>
       <c r="AF16" s="36" t="str">
         <f t="shared" ref="AF16:AF29" si="14">$C16</f>
-        <v>23BME01</v>
+        <v>22BME01</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2799,10 +2799,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="100" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D17" s="81"/>
       <c r="E17" s="98"/>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="L17" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>23BME02</v>
+        <v>22BME02</v>
       </c>
       <c r="M17" s="36">
         <f t="shared" si="2"/>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="P17" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>23BME02</v>
+        <v>22BME02</v>
       </c>
       <c r="Q17" s="36">
         <f t="shared" si="5"/>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="T17" s="36" t="str">
         <f t="shared" si="7"/>
-        <v>23BME02</v>
+        <v>22BME02</v>
       </c>
       <c r="U17" s="36">
         <f t="shared" si="8"/>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="X17" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>23BME02</v>
+        <v>22BME02</v>
       </c>
       <c r="Y17" s="36">
         <f t="shared" si="11"/>
@@ -2863,11 +2863,11 @@
       </c>
       <c r="AB17" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>23BME02</v>
+        <v>22BME02</v>
       </c>
       <c r="AF17" s="36" t="str">
         <f t="shared" si="14"/>
-        <v>23BME02</v>
+        <v>22BME02</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2875,10 +2875,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="100" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D18" s="81"/>
       <c r="E18" s="98"/>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="L18" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>23BME03</v>
+        <v>22BME03</v>
       </c>
       <c r="M18" s="36">
         <f t="shared" si="2"/>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="P18" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>23BME03</v>
+        <v>22BME03</v>
       </c>
       <c r="Q18" s="36">
         <f t="shared" si="5"/>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="T18" s="36" t="str">
         <f t="shared" si="7"/>
-        <v>23BME03</v>
+        <v>22BME03</v>
       </c>
       <c r="U18" s="36">
         <f t="shared" si="8"/>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="X18" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>23BME03</v>
+        <v>22BME03</v>
       </c>
       <c r="Y18" s="36">
         <f t="shared" si="11"/>
@@ -2939,11 +2939,11 @@
       </c>
       <c r="AB18" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>23BME03</v>
+        <v>22BME03</v>
       </c>
       <c r="AF18" s="36" t="str">
         <f t="shared" si="14"/>
-        <v>23BME03</v>
+        <v>22BME03</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2951,10 +2951,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="100" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D19" s="81"/>
       <c r="E19" s="98"/>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="L19" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>23BME04</v>
+        <v>22BME04</v>
       </c>
       <c r="M19" s="36">
         <f t="shared" si="2"/>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="P19" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>23BME04</v>
+        <v>22BME04</v>
       </c>
       <c r="Q19" s="36">
         <f t="shared" si="5"/>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="T19" s="36" t="str">
         <f t="shared" si="7"/>
-        <v>23BME04</v>
+        <v>22BME04</v>
       </c>
       <c r="U19" s="36">
         <f t="shared" si="8"/>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="X19" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>23BME04</v>
+        <v>22BME04</v>
       </c>
       <c r="Y19" s="36">
         <f t="shared" si="11"/>
@@ -3015,11 +3015,11 @@
       </c>
       <c r="AB19" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>23BME04</v>
+        <v>22BME04</v>
       </c>
       <c r="AF19" s="36" t="str">
         <f t="shared" si="14"/>
-        <v>23BME04</v>
+        <v>22BME04</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3027,10 +3027,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="100" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="D20" s="81"/>
       <c r="E20" s="98"/>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="L20" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>23BME05</v>
+        <v>22BME05</v>
       </c>
       <c r="M20" s="36">
         <f t="shared" si="2"/>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P20" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>23BME05</v>
+        <v>22BME05</v>
       </c>
       <c r="Q20" s="36">
         <f t="shared" si="5"/>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="T20" s="36" t="str">
         <f t="shared" si="7"/>
-        <v>23BME05</v>
+        <v>22BME05</v>
       </c>
       <c r="U20" s="36">
         <f t="shared" si="8"/>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="X20" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>23BME05</v>
+        <v>22BME05</v>
       </c>
       <c r="Y20" s="36">
         <f t="shared" si="11"/>
@@ -3091,11 +3091,11 @@
       </c>
       <c r="AB20" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>23BME05</v>
+        <v>22BME05</v>
       </c>
       <c r="AF20" s="36" t="str">
         <f t="shared" si="14"/>
-        <v>23BME05</v>
+        <v>22BME05</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3103,10 +3103,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="100" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="D21" s="81"/>
       <c r="E21" s="98"/>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="L21" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>23BME06</v>
+        <v>22BME06</v>
       </c>
       <c r="M21" s="36">
         <f t="shared" si="2"/>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="P21" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>23BME06</v>
+        <v>22BME06</v>
       </c>
       <c r="Q21" s="36">
         <f t="shared" si="5"/>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="T21" s="36" t="str">
         <f t="shared" si="7"/>
-        <v>23BME06</v>
+        <v>22BME06</v>
       </c>
       <c r="U21" s="36">
         <f t="shared" si="8"/>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="X21" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>23BME06</v>
+        <v>22BME06</v>
       </c>
       <c r="Y21" s="36">
         <f t="shared" si="11"/>
@@ -3167,11 +3167,11 @@
       </c>
       <c r="AB21" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>23BME06</v>
+        <v>22BME06</v>
       </c>
       <c r="AF21" s="36" t="str">
         <f t="shared" si="14"/>
-        <v>23BME06</v>
+        <v>22BME06</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3179,10 +3179,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="100" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D22" s="81"/>
       <c r="E22" s="98"/>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="L22" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>23BME07</v>
+        <v>22BME07</v>
       </c>
       <c r="M22" s="36">
         <f t="shared" si="2"/>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="P22" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>23BME07</v>
+        <v>22BME07</v>
       </c>
       <c r="Q22" s="36">
         <f t="shared" si="5"/>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="T22" s="36" t="str">
         <f t="shared" si="7"/>
-        <v>23BME07</v>
+        <v>22BME07</v>
       </c>
       <c r="U22" s="36">
         <f t="shared" si="8"/>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="X22" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>23BME07</v>
+        <v>22BME07</v>
       </c>
       <c r="Y22" s="36">
         <f t="shared" si="11"/>
@@ -3243,11 +3243,11 @@
       </c>
       <c r="AB22" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>23BME07</v>
+        <v>22BME07</v>
       </c>
       <c r="AF22" s="36" t="str">
         <f t="shared" si="14"/>
-        <v>23BME07</v>
+        <v>22BME07</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3255,10 +3255,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="100" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D23" s="81"/>
       <c r="E23" s="98"/>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="L23" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>23BME08</v>
+        <v>22BME08</v>
       </c>
       <c r="M23" s="36">
         <f t="shared" si="2"/>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="P23" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>23BME08</v>
+        <v>22BME08</v>
       </c>
       <c r="Q23" s="36">
         <f t="shared" si="5"/>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="T23" s="36" t="str">
         <f t="shared" si="7"/>
-        <v>23BME08</v>
+        <v>22BME08</v>
       </c>
       <c r="U23" s="36">
         <f t="shared" si="8"/>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="X23" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>23BME08</v>
+        <v>22BME08</v>
       </c>
       <c r="Y23" s="36">
         <f t="shared" si="11"/>
@@ -3319,11 +3319,11 @@
       </c>
       <c r="AB23" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>23BME08</v>
+        <v>22BME08</v>
       </c>
       <c r="AF23" s="36" t="str">
         <f t="shared" si="14"/>
-        <v>23BME08</v>
+        <v>22BME08</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3331,10 +3331,10 @@
         <v>9</v>
       </c>
       <c r="B24" s="100" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D24" s="81"/>
       <c r="E24" s="98"/>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="L24" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>23BME09</v>
+        <v>22BME09</v>
       </c>
       <c r="M24" s="36">
         <f t="shared" si="2"/>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="P24" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>23BME09</v>
+        <v>22BME09</v>
       </c>
       <c r="Q24" s="36">
         <f t="shared" si="5"/>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="T24" s="36" t="str">
         <f t="shared" si="7"/>
-        <v>23BME09</v>
+        <v>22BME09</v>
       </c>
       <c r="U24" s="36">
         <f t="shared" si="8"/>
@@ -3383,7 +3383,7 @@
       </c>
       <c r="X24" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>23BME09</v>
+        <v>22BME09</v>
       </c>
       <c r="Y24" s="36">
         <f t="shared" si="11"/>
@@ -3395,11 +3395,11 @@
       </c>
       <c r="AB24" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>23BME09</v>
+        <v>22BME09</v>
       </c>
       <c r="AF24" s="36" t="str">
         <f t="shared" si="14"/>
-        <v>23BME09</v>
+        <v>22BME09</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3407,10 +3407,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="100" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="D25" s="81"/>
       <c r="E25" s="98"/>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="L25" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>23BME10</v>
+        <v>22BME10</v>
       </c>
       <c r="M25" s="36">
         <f t="shared" si="2"/>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="P25" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>23BME10</v>
+        <v>22BME10</v>
       </c>
       <c r="Q25" s="36">
         <f t="shared" si="5"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="T25" s="36" t="str">
         <f t="shared" si="7"/>
-        <v>23BME10</v>
+        <v>22BME10</v>
       </c>
       <c r="U25" s="36">
         <f t="shared" si="8"/>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="X25" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>23BME10</v>
+        <v>22BME10</v>
       </c>
       <c r="Y25" s="36">
         <f t="shared" si="11"/>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="AB25" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>23BME10</v>
+        <v>22BME10</v>
       </c>
       <c r="AF25" s="36" t="str">
         <f t="shared" si="14"/>
-        <v>23BME10</v>
+        <v>22BME10</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3483,10 +3483,10 @@
         <v>11</v>
       </c>
       <c r="B26" s="100" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="D26" s="81"/>
       <c r="E26" s="98"/>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="L26" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>23BME11</v>
+        <v>22BME11</v>
       </c>
       <c r="M26" s="36">
         <f t="shared" si="2"/>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="P26" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>23BME11</v>
+        <v>22BME11</v>
       </c>
       <c r="Q26" s="36">
         <f t="shared" si="5"/>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="T26" s="36" t="str">
         <f t="shared" si="7"/>
-        <v>23BME11</v>
+        <v>22BME11</v>
       </c>
       <c r="U26" s="36">
         <f t="shared" si="8"/>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="X26" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>23BME11</v>
+        <v>22BME11</v>
       </c>
       <c r="Y26" s="36">
         <f t="shared" si="11"/>
@@ -3547,11 +3547,11 @@
       </c>
       <c r="AB26" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>23BME11</v>
+        <v>22BME11</v>
       </c>
       <c r="AF26" s="36" t="str">
         <f t="shared" si="14"/>
-        <v>23BME11</v>
+        <v>22BME11</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3559,10 +3559,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="100" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D27" s="81"/>
       <c r="E27" s="98"/>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="L27" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>23BME12</v>
+        <v>22BME12</v>
       </c>
       <c r="M27" s="36">
         <f t="shared" si="2"/>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="P27" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>23BME12</v>
+        <v>22BME12</v>
       </c>
       <c r="Q27" s="36">
         <f t="shared" si="5"/>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="T27" s="36" t="str">
         <f t="shared" si="7"/>
-        <v>23BME12</v>
+        <v>22BME12</v>
       </c>
       <c r="U27" s="36">
         <f t="shared" si="8"/>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="X27" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>23BME12</v>
+        <v>22BME12</v>
       </c>
       <c r="Y27" s="36">
         <f t="shared" si="11"/>
@@ -3623,11 +3623,11 @@
       </c>
       <c r="AB27" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>23BME12</v>
+        <v>22BME12</v>
       </c>
       <c r="AF27" s="36" t="str">
         <f t="shared" si="14"/>
-        <v>23BME12</v>
+        <v>22BME12</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3635,10 +3635,10 @@
         <v>13</v>
       </c>
       <c r="B28" s="100" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D28" s="81"/>
       <c r="E28" s="98"/>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="L28" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>23BME14</v>
+        <v>22BME14</v>
       </c>
       <c r="M28" s="36">
         <f t="shared" si="2"/>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="P28" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>23BME14</v>
+        <v>22BME14</v>
       </c>
       <c r="Q28" s="36">
         <f t="shared" si="5"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="T28" s="36" t="str">
         <f t="shared" si="7"/>
-        <v>23BME14</v>
+        <v>22BME14</v>
       </c>
       <c r="U28" s="36">
         <f t="shared" si="8"/>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="X28" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>23BME14</v>
+        <v>22BME14</v>
       </c>
       <c r="Y28" s="36">
         <f t="shared" si="11"/>
@@ -3699,11 +3699,11 @@
       </c>
       <c r="AB28" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>23BME14</v>
+        <v>22BME14</v>
       </c>
       <c r="AF28" s="36" t="str">
         <f t="shared" si="14"/>
-        <v>23BME14</v>
+        <v>22BME14</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3711,10 +3711,10 @@
         <v>14</v>
       </c>
       <c r="B29" s="99" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="D29" s="81"/>
       <c r="E29" s="98"/>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="L29" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>23BME15</v>
+        <v>22BME15</v>
       </c>
       <c r="M29" s="36">
         <f t="shared" si="2"/>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="P29" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>23BME15</v>
+        <v>22BME15</v>
       </c>
       <c r="Q29" s="36">
         <f t="shared" si="5"/>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="T29" s="36" t="str">
         <f t="shared" si="7"/>
-        <v>23BME15</v>
+        <v>22BME15</v>
       </c>
       <c r="U29" s="36">
         <f t="shared" si="8"/>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="X29" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>23BME15</v>
+        <v>22BME15</v>
       </c>
       <c r="Y29" s="36">
         <f t="shared" si="11"/>
@@ -3775,11 +3775,11 @@
       </c>
       <c r="AB29" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>23BME15</v>
+        <v>22BME15</v>
       </c>
       <c r="AF29" s="36" t="str">
         <f t="shared" si="14"/>
-        <v>23BME15</v>
+        <v>22BME15</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3787,10 +3787,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="100" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D30" s="81"/>
       <c r="E30" s="98"/>
@@ -3863,10 +3863,10 @@
         <v>16</v>
       </c>
       <c r="B31" s="100" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D31" s="82"/>
       <c r="E31" s="98"/>
@@ -3939,10 +3939,10 @@
         <v>17</v>
       </c>
       <c r="B32" s="100" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D32" s="93"/>
       <c r="E32" s="98"/>
@@ -4015,10 +4015,10 @@
         <v>18</v>
       </c>
       <c r="B33" s="100" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D33" s="93"/>
       <c r="E33" s="98"/>
@@ -4091,10 +4091,10 @@
         <v>19</v>
       </c>
       <c r="B34" s="100" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D34" s="93"/>
       <c r="E34" s="98"/>
@@ -4167,10 +4167,10 @@
         <v>20</v>
       </c>
       <c r="B35" s="100" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D35" s="93"/>
       <c r="E35" s="98"/>
@@ -4243,10 +4243,10 @@
         <v>21</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D36" s="93"/>
       <c r="E36" s="98"/>
@@ -4319,10 +4319,10 @@
         <v>22</v>
       </c>
       <c r="B37" s="99" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D37" s="93"/>
       <c r="E37" s="98"/>
@@ -4395,10 +4395,10 @@
         <v>23</v>
       </c>
       <c r="B38" s="100" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D38" s="93"/>
       <c r="E38" s="98"/>
@@ -4471,10 +4471,10 @@
         <v>24</v>
       </c>
       <c r="B39" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="99" t="s">
-        <v>108</v>
+        <v>84</v>
+      </c>
+      <c r="C39" s="97" t="s">
+        <v>121</v>
       </c>
       <c r="D39" s="82"/>
       <c r="E39" s="98"/>
@@ -4491,10 +4491,10 @@
         <v>25</v>
       </c>
       <c r="B40" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="100" t="s">
-        <v>110</v>
+        <v>85</v>
+      </c>
+      <c r="C40" s="97" t="s">
+        <v>122</v>
       </c>
       <c r="D40" s="82"/>
       <c r="E40" s="98"/>
@@ -4511,10 +4511,10 @@
         <v>26</v>
       </c>
       <c r="B41" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="99" t="s">
-        <v>112</v>
+        <v>86</v>
+      </c>
+      <c r="C41" s="97" t="s">
+        <v>123</v>
       </c>
       <c r="D41" s="82"/>
       <c r="E41" s="98"/>
@@ -4531,10 +4531,10 @@
         <v>27</v>
       </c>
       <c r="B42" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="100" t="s">
-        <v>114</v>
+        <v>87</v>
+      </c>
+      <c r="C42" s="97" t="s">
+        <v>124</v>
       </c>
       <c r="D42" s="82"/>
       <c r="E42" s="98"/>
@@ -4551,10 +4551,10 @@
         <v>28</v>
       </c>
       <c r="B43" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="99" t="s">
-        <v>116</v>
+        <v>88</v>
+      </c>
+      <c r="C43" s="97" t="s">
+        <v>125</v>
       </c>
       <c r="D43" s="82"/>
       <c r="E43" s="98">
@@ -4694,8 +4694,8 @@
   </sheetPr>
   <dimension ref="A1:AK48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -5014,10 +5014,10 @@
         <v>56</v>
       </c>
       <c r="B14" s="106" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C14" s="105" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="D14" s="105" t="s">
         <v>15</v>
@@ -5046,7 +5046,7 @@
         <v>62</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="82">
@@ -5139,10 +5139,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="100" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="82">
@@ -5235,10 +5235,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="99" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D17" s="99"/>
       <c r="E17" s="82">
@@ -5331,10 +5331,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="100" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D18" s="100"/>
       <c r="E18" s="82">
@@ -5427,10 +5427,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="99" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="D19" s="99"/>
       <c r="E19" s="82">
@@ -5523,10 +5523,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="100" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="D20" s="100"/>
       <c r="E20" s="82">
@@ -5619,10 +5619,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="99" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D21" s="99"/>
       <c r="E21" s="82">
@@ -5715,10 +5715,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="100" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D22" s="100"/>
       <c r="E22" s="82">
@@ -5811,10 +5811,10 @@
         <v>9</v>
       </c>
       <c r="B23" s="99" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D23" s="99"/>
       <c r="E23" s="82">
@@ -5907,10 +5907,10 @@
         <v>10</v>
       </c>
       <c r="B24" s="100" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="D24" s="100"/>
       <c r="E24" s="82">
@@ -6003,10 +6003,10 @@
         <v>11</v>
       </c>
       <c r="B25" s="99" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="D25" s="99"/>
       <c r="E25" s="82">
@@ -6099,10 +6099,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="100" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D26" s="100"/>
       <c r="E26" s="82">
@@ -6195,10 +6195,10 @@
         <v>13</v>
       </c>
       <c r="B27" s="99" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D27" s="99"/>
       <c r="E27" s="82">
@@ -6291,10 +6291,10 @@
         <v>14</v>
       </c>
       <c r="B28" s="100" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="D28" s="100"/>
       <c r="E28" s="82">
@@ -6387,10 +6387,10 @@
         <v>15</v>
       </c>
       <c r="B29" s="99" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D29" s="99"/>
       <c r="E29" s="82">
@@ -6483,10 +6483,10 @@
         <v>16</v>
       </c>
       <c r="B30" s="100" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D30" s="100"/>
       <c r="E30" s="82">
@@ -6579,10 +6579,10 @@
         <v>17</v>
       </c>
       <c r="B31" s="99" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D31" s="99"/>
       <c r="E31" s="82">
@@ -6675,10 +6675,10 @@
         <v>18</v>
       </c>
       <c r="B32" s="100" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D32" s="100"/>
       <c r="E32" s="82">
@@ -6771,10 +6771,10 @@
         <v>19</v>
       </c>
       <c r="B33" s="99" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D33" s="99"/>
       <c r="E33" s="82">
@@ -6867,10 +6867,10 @@
         <v>20</v>
       </c>
       <c r="B34" s="100" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D34" s="100"/>
       <c r="E34" s="82">
@@ -6963,10 +6963,10 @@
         <v>21</v>
       </c>
       <c r="B35" s="99" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D35" s="99"/>
       <c r="E35" s="82">
@@ -7059,10 +7059,10 @@
         <v>22</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D36" s="100"/>
       <c r="E36" s="82">
@@ -7155,10 +7155,10 @@
         <v>23</v>
       </c>
       <c r="B37" s="99" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D37" s="99"/>
       <c r="E37" s="82">
@@ -7251,10 +7251,10 @@
         <v>24</v>
       </c>
       <c r="B38" s="100" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D38" s="100"/>
       <c r="E38" s="82">
@@ -7347,10 +7347,10 @@
         <v>25</v>
       </c>
       <c r="B39" s="99" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D39" s="99"/>
       <c r="E39" s="82">
@@ -7375,10 +7375,10 @@
         <v>26</v>
       </c>
       <c r="B40" s="100" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D40" s="100"/>
       <c r="E40" s="82">
@@ -7403,10 +7403,10 @@
         <v>27</v>
       </c>
       <c r="B41" s="99" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D41" s="99"/>
       <c r="E41" s="82">
@@ -7431,10 +7431,10 @@
         <v>28</v>
       </c>
       <c r="B42" s="100" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D42" s="100"/>
       <c r="E42" s="82">
@@ -7519,8 +7519,8 @@
   </sheetPr>
   <dimension ref="A1:AV50"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -7913,10 +7913,10 @@
         <v>56</v>
       </c>
       <c r="B15" s="111" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C15" s="112" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="D15" s="112" t="s">
         <v>15</v>
@@ -7949,7 +7949,7 @@
         <v>62</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
@@ -8068,10 +8068,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="100" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
@@ -8190,10 +8190,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="99" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="C18" s="97" t="s">
+        <v>100</v>
       </c>
       <c r="D18" s="97"/>
       <c r="E18" s="99"/>
@@ -8312,10 +8312,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="100" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="C19" s="97" t="s">
+        <v>101</v>
       </c>
       <c r="D19" s="97"/>
       <c r="E19" s="100"/>
@@ -8434,10 +8434,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="99" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="C20" s="97" t="s">
+        <v>102</v>
       </c>
       <c r="D20" s="97"/>
       <c r="E20" s="99"/>
@@ -8556,10 +8556,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="100" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="C21" s="97" t="s">
+        <v>103</v>
       </c>
       <c r="D21" s="97"/>
       <c r="E21" s="100"/>
@@ -8678,10 +8678,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="99" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+      <c r="C22" s="97" t="s">
+        <v>104</v>
       </c>
       <c r="D22" s="97"/>
       <c r="E22" s="99"/>
@@ -8800,10 +8800,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="100" t="s">
-        <v>77</v>
+        <v>69</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>105</v>
       </c>
       <c r="D23" s="97"/>
       <c r="E23" s="100"/>
@@ -8922,10 +8922,10 @@
         <v>9</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="99" t="s">
-        <v>79</v>
+        <v>70</v>
+      </c>
+      <c r="C24" s="97" t="s">
+        <v>106</v>
       </c>
       <c r="D24" s="97"/>
       <c r="E24" s="99"/>
@@ -9044,10 +9044,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="97" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="100" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="C25" s="97" t="s">
+        <v>107</v>
       </c>
       <c r="D25" s="97"/>
       <c r="E25" s="100"/>
@@ -9166,10 +9166,10 @@
         <v>11</v>
       </c>
       <c r="B26" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="99" t="s">
-        <v>83</v>
+        <v>72</v>
+      </c>
+      <c r="C26" s="97" t="s">
+        <v>108</v>
       </c>
       <c r="D26" s="97"/>
       <c r="E26" s="99"/>
@@ -9288,10 +9288,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="97" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="100" t="s">
-        <v>85</v>
+        <v>73</v>
+      </c>
+      <c r="C27" s="97" t="s">
+        <v>109</v>
       </c>
       <c r="D27" s="97"/>
       <c r="E27" s="100"/>
@@ -9410,10 +9410,10 @@
         <v>13</v>
       </c>
       <c r="B28" s="97" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="99" t="s">
-        <v>87</v>
+        <v>74</v>
+      </c>
+      <c r="C28" s="97" t="s">
+        <v>110</v>
       </c>
       <c r="D28" s="97"/>
       <c r="E28" s="99"/>
@@ -9532,10 +9532,10 @@
         <v>14</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="100" t="s">
-        <v>89</v>
+        <v>75</v>
+      </c>
+      <c r="C29" s="97" t="s">
+        <v>111</v>
       </c>
       <c r="D29" s="97"/>
       <c r="E29" s="100"/>
@@ -9654,10 +9654,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="99" t="s">
-        <v>91</v>
+        <v>76</v>
+      </c>
+      <c r="C30" s="97" t="s">
+        <v>112</v>
       </c>
       <c r="D30" s="97"/>
       <c r="E30" s="99"/>
@@ -9776,10 +9776,10 @@
         <v>16</v>
       </c>
       <c r="B31" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="100" t="s">
-        <v>93</v>
+        <v>77</v>
+      </c>
+      <c r="C31" s="97" t="s">
+        <v>113</v>
       </c>
       <c r="D31" s="97"/>
       <c r="E31" s="100"/>
@@ -9898,10 +9898,10 @@
         <v>17</v>
       </c>
       <c r="B32" s="97" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="99" t="s">
-        <v>95</v>
+        <v>78</v>
+      </c>
+      <c r="C32" s="97" t="s">
+        <v>114</v>
       </c>
       <c r="D32" s="97"/>
       <c r="E32" s="99"/>
@@ -10017,10 +10017,10 @@
         <v>18</v>
       </c>
       <c r="B33" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="100" t="s">
-        <v>97</v>
+        <v>79</v>
+      </c>
+      <c r="C33" s="97" t="s">
+        <v>115</v>
       </c>
       <c r="D33" s="97"/>
       <c r="E33" s="100"/>
@@ -10136,10 +10136,10 @@
         <v>19</v>
       </c>
       <c r="B34" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="99" t="s">
-        <v>98</v>
+        <v>65</v>
+      </c>
+      <c r="C34" s="97" t="s">
+        <v>116</v>
       </c>
       <c r="D34" s="97"/>
       <c r="E34" s="99"/>
@@ -10255,10 +10255,10 @@
         <v>20</v>
       </c>
       <c r="B35" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="100" t="s">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="C35" s="97" t="s">
+        <v>117</v>
       </c>
       <c r="D35" s="97"/>
       <c r="E35" s="100"/>
@@ -10374,10 +10374,10 @@
         <v>21</v>
       </c>
       <c r="B36" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="99" t="s">
-        <v>102</v>
+        <v>81</v>
+      </c>
+      <c r="C36" s="97" t="s">
+        <v>118</v>
       </c>
       <c r="D36" s="97"/>
       <c r="E36" s="99"/>
@@ -10493,10 +10493,10 @@
         <v>22</v>
       </c>
       <c r="B37" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="100" t="s">
-        <v>104</v>
+        <v>82</v>
+      </c>
+      <c r="C37" s="97" t="s">
+        <v>119</v>
       </c>
       <c r="D37" s="97"/>
       <c r="E37" s="100"/>
@@ -10612,10 +10612,10 @@
         <v>23</v>
       </c>
       <c r="B38" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="99" t="s">
-        <v>106</v>
+        <v>83</v>
+      </c>
+      <c r="C38" s="97" t="s">
+        <v>120</v>
       </c>
       <c r="D38" s="97"/>
       <c r="E38" s="99"/>
@@ -10731,10 +10731,10 @@
         <v>24</v>
       </c>
       <c r="B39" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="100" t="s">
-        <v>108</v>
+        <v>84</v>
+      </c>
+      <c r="C39" s="97" t="s">
+        <v>121</v>
       </c>
       <c r="D39" s="97"/>
       <c r="E39" s="100"/>
@@ -10850,10 +10850,10 @@
         <v>25</v>
       </c>
       <c r="B40" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="99" t="s">
-        <v>110</v>
+        <v>85</v>
+      </c>
+      <c r="C40" s="97" t="s">
+        <v>122</v>
       </c>
       <c r="D40" s="97"/>
       <c r="E40" s="99"/>
@@ -10873,10 +10873,10 @@
         <v>26</v>
       </c>
       <c r="B41" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="100" t="s">
-        <v>112</v>
+        <v>86</v>
+      </c>
+      <c r="C41" s="97" t="s">
+        <v>123</v>
       </c>
       <c r="D41" s="97"/>
       <c r="E41" s="100"/>
@@ -10896,10 +10896,10 @@
         <v>27</v>
       </c>
       <c r="B42" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="99" t="s">
-        <v>114</v>
+        <v>87</v>
+      </c>
+      <c r="C42" s="97" t="s">
+        <v>124</v>
       </c>
       <c r="D42" s="97"/>
       <c r="E42" s="99"/>
@@ -10919,10 +10919,10 @@
         <v>28</v>
       </c>
       <c r="B43" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="100" t="s">
-        <v>116</v>
+        <v>88</v>
+      </c>
+      <c r="C43" s="97" t="s">
+        <v>125</v>
       </c>
       <c r="D43" s="97"/>
       <c r="E43" s="100"/>
@@ -11039,8 +11039,8 @@
   </sheetPr>
   <dimension ref="A1:AP68"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -11402,7 +11402,7 @@
         <v>56</v>
       </c>
       <c r="B15" s="116" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C15" s="88" t="s">
         <v>3</v>
@@ -11437,7 +11437,7 @@
         <v>62</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D16" s="85"/>
       <c r="E16" s="85">
@@ -11461,7 +11461,7 @@
       </c>
       <c r="O16" t="str">
         <f t="shared" ref="O16:O38" si="1">$C16</f>
-        <v>23BME01</v>
+        <v>22BME01</v>
       </c>
       <c r="P16" t="e">
         <f>#REF!</f>
@@ -11473,7 +11473,7 @@
       </c>
       <c r="S16" t="str">
         <f t="shared" ref="S16:S38" si="2">$C16</f>
-        <v>23BME01</v>
+        <v>22BME01</v>
       </c>
       <c r="T16">
         <f t="shared" ref="T16:T38" si="3">F$13</f>
@@ -11485,7 +11485,7 @@
       </c>
       <c r="W16" t="str">
         <f t="shared" ref="W16:W38" si="4">$C16</f>
-        <v>23BME01</v>
+        <v>22BME01</v>
       </c>
       <c r="X16">
         <f t="shared" ref="X16:X38" si="5">G$13</f>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="AA16" t="str">
         <f t="shared" ref="AA16:AA38" si="7">$C16</f>
-        <v>23BME01</v>
+        <v>22BME01</v>
       </c>
       <c r="AB16">
         <f t="shared" ref="AB16:AB38" si="8">H$13</f>
@@ -11509,7 +11509,7 @@
       </c>
       <c r="AE16" t="str">
         <f t="shared" ref="AE16:AE38" si="10">$C16</f>
-        <v>23BME01</v>
+        <v>22BME01</v>
       </c>
       <c r="AF16">
         <f t="shared" ref="AF16:AF38" si="11">I$13</f>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="AI16" t="str">
         <f t="shared" ref="AI16:AI38" si="13">$C16</f>
-        <v>23BME01</v>
+        <v>22BME01</v>
       </c>
       <c r="AJ16" t="e">
         <f>#REF!</f>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="AM16" t="str">
         <f t="shared" ref="AM16:AM38" si="14">$C16</f>
-        <v>23BME01</v>
+        <v>22BME01</v>
       </c>
       <c r="AN16" t="e">
         <f>#REF!</f>
@@ -11549,10 +11549,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="100" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D17" s="85"/>
       <c r="E17" s="85">
@@ -11576,7 +11576,7 @@
       </c>
       <c r="O17" t="str">
         <f t="shared" si="1"/>
-        <v>23BME02</v>
+        <v>22BME02</v>
       </c>
       <c r="P17" t="e">
         <f>#REF!</f>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="S17" t="str">
         <f t="shared" si="2"/>
-        <v>23BME02</v>
+        <v>22BME02</v>
       </c>
       <c r="T17">
         <f t="shared" si="3"/>
@@ -11600,7 +11600,7 @@
       </c>
       <c r="W17" t="str">
         <f t="shared" si="4"/>
-        <v>23BME02</v>
+        <v>22BME02</v>
       </c>
       <c r="X17">
         <f t="shared" si="5"/>
@@ -11612,7 +11612,7 @@
       </c>
       <c r="AA17" t="str">
         <f t="shared" si="7"/>
-        <v>23BME02</v>
+        <v>22BME02</v>
       </c>
       <c r="AB17">
         <f t="shared" si="8"/>
@@ -11624,7 +11624,7 @@
       </c>
       <c r="AE17" t="str">
         <f t="shared" si="10"/>
-        <v>23BME02</v>
+        <v>22BME02</v>
       </c>
       <c r="AF17">
         <f t="shared" si="11"/>
@@ -11636,7 +11636,7 @@
       </c>
       <c r="AI17" t="str">
         <f t="shared" si="13"/>
-        <v>23BME02</v>
+        <v>22BME02</v>
       </c>
       <c r="AJ17" t="e">
         <f>#REF!</f>
@@ -11648,7 +11648,7 @@
       </c>
       <c r="AM17" t="str">
         <f t="shared" si="14"/>
-        <v>23BME02</v>
+        <v>22BME02</v>
       </c>
       <c r="AN17" t="e">
         <f>#REF!</f>
@@ -11664,10 +11664,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="100" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D18" s="85"/>
       <c r="E18" s="85">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="O18" t="str">
         <f t="shared" si="1"/>
-        <v>23BME03</v>
+        <v>22BME03</v>
       </c>
       <c r="P18" t="e">
         <f>#REF!</f>
@@ -11703,7 +11703,7 @@
       </c>
       <c r="S18" t="str">
         <f t="shared" si="2"/>
-        <v>23BME03</v>
+        <v>22BME03</v>
       </c>
       <c r="T18">
         <f t="shared" si="3"/>
@@ -11715,7 +11715,7 @@
       </c>
       <c r="W18" t="str">
         <f t="shared" si="4"/>
-        <v>23BME03</v>
+        <v>22BME03</v>
       </c>
       <c r="X18">
         <f t="shared" si="5"/>
@@ -11727,7 +11727,7 @@
       </c>
       <c r="AA18" t="str">
         <f t="shared" si="7"/>
-        <v>23BME03</v>
+        <v>22BME03</v>
       </c>
       <c r="AB18">
         <f t="shared" si="8"/>
@@ -11739,7 +11739,7 @@
       </c>
       <c r="AE18" t="str">
         <f t="shared" si="10"/>
-        <v>23BME03</v>
+        <v>22BME03</v>
       </c>
       <c r="AF18">
         <f t="shared" si="11"/>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="AI18" t="str">
         <f t="shared" si="13"/>
-        <v>23BME03</v>
+        <v>22BME03</v>
       </c>
       <c r="AJ18" t="e">
         <f>#REF!</f>
@@ -11763,7 +11763,7 @@
       </c>
       <c r="AM18" t="str">
         <f t="shared" si="14"/>
-        <v>23BME03</v>
+        <v>22BME03</v>
       </c>
       <c r="AN18" t="e">
         <f>#REF!</f>
@@ -11779,10 +11779,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="100" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D19" s="85"/>
       <c r="E19" s="85">
@@ -11806,7 +11806,7 @@
       </c>
       <c r="O19" t="str">
         <f t="shared" si="1"/>
-        <v>23BME04</v>
+        <v>22BME04</v>
       </c>
       <c r="P19" t="e">
         <f>#REF!</f>
@@ -11818,7 +11818,7 @@
       </c>
       <c r="S19" t="str">
         <f t="shared" si="2"/>
-        <v>23BME04</v>
+        <v>22BME04</v>
       </c>
       <c r="T19">
         <f t="shared" si="3"/>
@@ -11830,7 +11830,7 @@
       </c>
       <c r="W19" t="str">
         <f t="shared" si="4"/>
-        <v>23BME04</v>
+        <v>22BME04</v>
       </c>
       <c r="X19">
         <f t="shared" si="5"/>
@@ -11842,7 +11842,7 @@
       </c>
       <c r="AA19" t="str">
         <f t="shared" si="7"/>
-        <v>23BME04</v>
+        <v>22BME04</v>
       </c>
       <c r="AB19">
         <f t="shared" si="8"/>
@@ -11854,7 +11854,7 @@
       </c>
       <c r="AE19" t="str">
         <f t="shared" si="10"/>
-        <v>23BME04</v>
+        <v>22BME04</v>
       </c>
       <c r="AF19">
         <f t="shared" si="11"/>
@@ -11866,7 +11866,7 @@
       </c>
       <c r="AI19" t="str">
         <f t="shared" si="13"/>
-        <v>23BME04</v>
+        <v>22BME04</v>
       </c>
       <c r="AJ19" t="e">
         <f>#REF!</f>
@@ -11878,7 +11878,7 @@
       </c>
       <c r="AM19" t="str">
         <f t="shared" si="14"/>
-        <v>23BME04</v>
+        <v>22BME04</v>
       </c>
       <c r="AN19" t="e">
         <f>#REF!</f>
@@ -11894,10 +11894,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="99" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="D20" s="85"/>
       <c r="E20" s="85">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="O20" t="str">
         <f t="shared" si="1"/>
-        <v>23BME05</v>
+        <v>22BME05</v>
       </c>
       <c r="P20" t="e">
         <f>#REF!</f>
@@ -11933,7 +11933,7 @@
       </c>
       <c r="S20" t="str">
         <f t="shared" si="2"/>
-        <v>23BME05</v>
+        <v>22BME05</v>
       </c>
       <c r="T20">
         <f t="shared" si="3"/>
@@ -11945,7 +11945,7 @@
       </c>
       <c r="W20" t="str">
         <f t="shared" si="4"/>
-        <v>23BME05</v>
+        <v>22BME05</v>
       </c>
       <c r="X20">
         <f t="shared" si="5"/>
@@ -11957,7 +11957,7 @@
       </c>
       <c r="AA20" t="str">
         <f t="shared" si="7"/>
-        <v>23BME05</v>
+        <v>22BME05</v>
       </c>
       <c r="AB20">
         <f t="shared" si="8"/>
@@ -11969,7 +11969,7 @@
       </c>
       <c r="AE20" t="str">
         <f t="shared" si="10"/>
-        <v>23BME05</v>
+        <v>22BME05</v>
       </c>
       <c r="AF20">
         <f t="shared" si="11"/>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="AI20" t="str">
         <f t="shared" si="13"/>
-        <v>23BME05</v>
+        <v>22BME05</v>
       </c>
       <c r="AJ20" t="e">
         <f>#REF!</f>
@@ -11993,7 +11993,7 @@
       </c>
       <c r="AM20" t="str">
         <f t="shared" si="14"/>
-        <v>23BME05</v>
+        <v>22BME05</v>
       </c>
       <c r="AN20" t="e">
         <f>#REF!</f>
@@ -12009,10 +12009,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="100" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="D21" s="85"/>
       <c r="E21" s="85">
@@ -12036,7 +12036,7 @@
       </c>
       <c r="O21" t="str">
         <f t="shared" si="1"/>
-        <v>23BME06</v>
+        <v>22BME06</v>
       </c>
       <c r="P21" t="e">
         <f>#REF!</f>
@@ -12048,7 +12048,7 @@
       </c>
       <c r="S21" t="str">
         <f t="shared" si="2"/>
-        <v>23BME06</v>
+        <v>22BME06</v>
       </c>
       <c r="T21">
         <f t="shared" si="3"/>
@@ -12060,7 +12060,7 @@
       </c>
       <c r="W21" t="str">
         <f t="shared" si="4"/>
-        <v>23BME06</v>
+        <v>22BME06</v>
       </c>
       <c r="X21">
         <f t="shared" si="5"/>
@@ -12072,7 +12072,7 @@
       </c>
       <c r="AA21" t="str">
         <f t="shared" si="7"/>
-        <v>23BME06</v>
+        <v>22BME06</v>
       </c>
       <c r="AB21">
         <f t="shared" si="8"/>
@@ -12084,7 +12084,7 @@
       </c>
       <c r="AE21" t="str">
         <f t="shared" si="10"/>
-        <v>23BME06</v>
+        <v>22BME06</v>
       </c>
       <c r="AF21">
         <f t="shared" si="11"/>
@@ -12096,7 +12096,7 @@
       </c>
       <c r="AI21" t="str">
         <f t="shared" si="13"/>
-        <v>23BME06</v>
+        <v>22BME06</v>
       </c>
       <c r="AJ21" t="e">
         <f>#REF!</f>
@@ -12108,7 +12108,7 @@
       </c>
       <c r="AM21" t="str">
         <f t="shared" si="14"/>
-        <v>23BME06</v>
+        <v>22BME06</v>
       </c>
       <c r="AN21" t="e">
         <f>#REF!</f>
@@ -12124,10 +12124,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="100" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D22" s="85"/>
       <c r="E22" s="85">
@@ -12151,7 +12151,7 @@
       </c>
       <c r="O22" t="str">
         <f t="shared" si="1"/>
-        <v>23BME07</v>
+        <v>22BME07</v>
       </c>
       <c r="P22" t="e">
         <f>#REF!</f>
@@ -12163,7 +12163,7 @@
       </c>
       <c r="S22" t="str">
         <f t="shared" si="2"/>
-        <v>23BME07</v>
+        <v>22BME07</v>
       </c>
       <c r="T22">
         <f t="shared" si="3"/>
@@ -12175,7 +12175,7 @@
       </c>
       <c r="W22" t="str">
         <f t="shared" si="4"/>
-        <v>23BME07</v>
+        <v>22BME07</v>
       </c>
       <c r="X22">
         <f t="shared" si="5"/>
@@ -12187,7 +12187,7 @@
       </c>
       <c r="AA22" t="str">
         <f t="shared" si="7"/>
-        <v>23BME07</v>
+        <v>22BME07</v>
       </c>
       <c r="AB22">
         <f t="shared" si="8"/>
@@ -12199,7 +12199,7 @@
       </c>
       <c r="AE22" t="str">
         <f t="shared" si="10"/>
-        <v>23BME07</v>
+        <v>22BME07</v>
       </c>
       <c r="AF22">
         <f t="shared" si="11"/>
@@ -12211,7 +12211,7 @@
       </c>
       <c r="AI22" t="str">
         <f t="shared" si="13"/>
-        <v>23BME07</v>
+        <v>22BME07</v>
       </c>
       <c r="AJ22" t="e">
         <f>#REF!</f>
@@ -12223,7 +12223,7 @@
       </c>
       <c r="AM22" t="str">
         <f t="shared" si="14"/>
-        <v>23BME07</v>
+        <v>22BME07</v>
       </c>
       <c r="AN22" t="e">
         <f>#REF!</f>
@@ -12239,10 +12239,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="100" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D23" s="85"/>
       <c r="E23" s="85">
@@ -12266,7 +12266,7 @@
       </c>
       <c r="O23" t="str">
         <f t="shared" si="1"/>
-        <v>23BME08</v>
+        <v>22BME08</v>
       </c>
       <c r="P23" t="e">
         <f>#REF!</f>
@@ -12278,7 +12278,7 @@
       </c>
       <c r="S23" t="str">
         <f t="shared" si="2"/>
-        <v>23BME08</v>
+        <v>22BME08</v>
       </c>
       <c r="T23">
         <f t="shared" si="3"/>
@@ -12290,7 +12290,7 @@
       </c>
       <c r="W23" t="str">
         <f t="shared" si="4"/>
-        <v>23BME08</v>
+        <v>22BME08</v>
       </c>
       <c r="X23">
         <f t="shared" si="5"/>
@@ -12302,7 +12302,7 @@
       </c>
       <c r="AA23" t="str">
         <f t="shared" si="7"/>
-        <v>23BME08</v>
+        <v>22BME08</v>
       </c>
       <c r="AB23">
         <f t="shared" si="8"/>
@@ -12314,7 +12314,7 @@
       </c>
       <c r="AE23" t="str">
         <f t="shared" si="10"/>
-        <v>23BME08</v>
+        <v>22BME08</v>
       </c>
       <c r="AF23">
         <f t="shared" si="11"/>
@@ -12326,7 +12326,7 @@
       </c>
       <c r="AI23" t="str">
         <f t="shared" si="13"/>
-        <v>23BME08</v>
+        <v>22BME08</v>
       </c>
       <c r="AJ23" t="e">
         <f>#REF!</f>
@@ -12338,7 +12338,7 @@
       </c>
       <c r="AM23" t="str">
         <f t="shared" si="14"/>
-        <v>23BME08</v>
+        <v>22BME08</v>
       </c>
       <c r="AN23" t="e">
         <f>#REF!</f>
@@ -12354,10 +12354,10 @@
         <v>9</v>
       </c>
       <c r="B24" s="99" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D24" s="85"/>
       <c r="E24" s="85">
@@ -12381,7 +12381,7 @@
       </c>
       <c r="O24" t="str">
         <f t="shared" si="1"/>
-        <v>23BME09</v>
+        <v>22BME09</v>
       </c>
       <c r="P24" t="e">
         <f>#REF!</f>
@@ -12393,7 +12393,7 @@
       </c>
       <c r="S24" t="str">
         <f t="shared" si="2"/>
-        <v>23BME09</v>
+        <v>22BME09</v>
       </c>
       <c r="T24">
         <f t="shared" si="3"/>
@@ -12405,7 +12405,7 @@
       </c>
       <c r="W24" t="str">
         <f t="shared" si="4"/>
-        <v>23BME09</v>
+        <v>22BME09</v>
       </c>
       <c r="X24">
         <f t="shared" si="5"/>
@@ -12417,7 +12417,7 @@
       </c>
       <c r="AA24" t="str">
         <f t="shared" si="7"/>
-        <v>23BME09</v>
+        <v>22BME09</v>
       </c>
       <c r="AB24">
         <f t="shared" si="8"/>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="AE24" t="str">
         <f t="shared" si="10"/>
-        <v>23BME09</v>
+        <v>22BME09</v>
       </c>
       <c r="AF24">
         <f t="shared" si="11"/>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="AI24" t="str">
         <f t="shared" si="13"/>
-        <v>23BME09</v>
+        <v>22BME09</v>
       </c>
       <c r="AJ24" t="e">
         <f>#REF!</f>
@@ -12453,7 +12453,7 @@
       </c>
       <c r="AM24" t="str">
         <f t="shared" si="14"/>
-        <v>23BME09</v>
+        <v>22BME09</v>
       </c>
       <c r="AN24" t="e">
         <f>#REF!</f>
@@ -12469,10 +12469,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="100" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="D25" s="85"/>
       <c r="E25" s="85">
@@ -12496,7 +12496,7 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" si="1"/>
-        <v>23BME10</v>
+        <v>22BME10</v>
       </c>
       <c r="P25" t="e">
         <f>#REF!</f>
@@ -12508,7 +12508,7 @@
       </c>
       <c r="S25" t="str">
         <f t="shared" si="2"/>
-        <v>23BME10</v>
+        <v>22BME10</v>
       </c>
       <c r="T25">
         <f t="shared" si="3"/>
@@ -12520,7 +12520,7 @@
       </c>
       <c r="W25" t="str">
         <f t="shared" si="4"/>
-        <v>23BME10</v>
+        <v>22BME10</v>
       </c>
       <c r="X25">
         <f t="shared" si="5"/>
@@ -12532,7 +12532,7 @@
       </c>
       <c r="AA25" t="str">
         <f t="shared" si="7"/>
-        <v>23BME10</v>
+        <v>22BME10</v>
       </c>
       <c r="AB25">
         <f t="shared" si="8"/>
@@ -12544,7 +12544,7 @@
       </c>
       <c r="AE25" t="str">
         <f t="shared" si="10"/>
-        <v>23BME10</v>
+        <v>22BME10</v>
       </c>
       <c r="AF25">
         <f t="shared" si="11"/>
@@ -12556,7 +12556,7 @@
       </c>
       <c r="AI25" t="str">
         <f t="shared" si="13"/>
-        <v>23BME10</v>
+        <v>22BME10</v>
       </c>
       <c r="AJ25" t="e">
         <f>#REF!</f>
@@ -12568,7 +12568,7 @@
       </c>
       <c r="AM25" t="str">
         <f t="shared" si="14"/>
-        <v>23BME10</v>
+        <v>22BME10</v>
       </c>
       <c r="AN25" t="e">
         <f>#REF!</f>
@@ -12584,10 +12584,10 @@
         <v>11</v>
       </c>
       <c r="B26" s="100" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="D26" s="85"/>
       <c r="E26" s="85">
@@ -12611,7 +12611,7 @@
       </c>
       <c r="O26" t="str">
         <f t="shared" si="1"/>
-        <v>23BME11</v>
+        <v>22BME11</v>
       </c>
       <c r="P26" t="e">
         <f>#REF!</f>
@@ -12623,7 +12623,7 @@
       </c>
       <c r="S26" t="str">
         <f t="shared" si="2"/>
-        <v>23BME11</v>
+        <v>22BME11</v>
       </c>
       <c r="T26">
         <f t="shared" si="3"/>
@@ -12635,7 +12635,7 @@
       </c>
       <c r="W26" t="str">
         <f t="shared" si="4"/>
-        <v>23BME11</v>
+        <v>22BME11</v>
       </c>
       <c r="X26">
         <f t="shared" si="5"/>
@@ -12647,7 +12647,7 @@
       </c>
       <c r="AA26" t="str">
         <f t="shared" si="7"/>
-        <v>23BME11</v>
+        <v>22BME11</v>
       </c>
       <c r="AB26">
         <f t="shared" si="8"/>
@@ -12659,7 +12659,7 @@
       </c>
       <c r="AE26" t="str">
         <f t="shared" si="10"/>
-        <v>23BME11</v>
+        <v>22BME11</v>
       </c>
       <c r="AF26">
         <f t="shared" si="11"/>
@@ -12671,7 +12671,7 @@
       </c>
       <c r="AI26" t="str">
         <f t="shared" si="13"/>
-        <v>23BME11</v>
+        <v>22BME11</v>
       </c>
       <c r="AJ26" t="e">
         <f>#REF!</f>
@@ -12683,7 +12683,7 @@
       </c>
       <c r="AM26" t="str">
         <f t="shared" si="14"/>
-        <v>23BME11</v>
+        <v>22BME11</v>
       </c>
       <c r="AN26" t="e">
         <f>#REF!</f>
@@ -12699,10 +12699,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="100" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D27" s="85"/>
       <c r="E27" s="85">
@@ -12726,7 +12726,7 @@
       </c>
       <c r="O27" t="str">
         <f t="shared" si="1"/>
-        <v>23BME12</v>
+        <v>22BME12</v>
       </c>
       <c r="P27" t="e">
         <f>#REF!</f>
@@ -12738,7 +12738,7 @@
       </c>
       <c r="S27" t="str">
         <f t="shared" si="2"/>
-        <v>23BME12</v>
+        <v>22BME12</v>
       </c>
       <c r="T27">
         <f t="shared" si="3"/>
@@ -12750,7 +12750,7 @@
       </c>
       <c r="W27" t="str">
         <f t="shared" si="4"/>
-        <v>23BME12</v>
+        <v>22BME12</v>
       </c>
       <c r="X27">
         <f t="shared" si="5"/>
@@ -12762,7 +12762,7 @@
       </c>
       <c r="AA27" t="str">
         <f t="shared" si="7"/>
-        <v>23BME12</v>
+        <v>22BME12</v>
       </c>
       <c r="AB27">
         <f t="shared" si="8"/>
@@ -12774,7 +12774,7 @@
       </c>
       <c r="AE27" t="str">
         <f t="shared" si="10"/>
-        <v>23BME12</v>
+        <v>22BME12</v>
       </c>
       <c r="AF27">
         <f t="shared" si="11"/>
@@ -12786,7 +12786,7 @@
       </c>
       <c r="AI27" t="str">
         <f t="shared" si="13"/>
-        <v>23BME12</v>
+        <v>22BME12</v>
       </c>
       <c r="AJ27" t="e">
         <f>#REF!</f>
@@ -12798,7 +12798,7 @@
       </c>
       <c r="AM27" t="str">
         <f t="shared" si="14"/>
-        <v>23BME12</v>
+        <v>22BME12</v>
       </c>
       <c r="AN27" t="e">
         <f>#REF!</f>
@@ -12814,10 +12814,10 @@
         <v>13</v>
       </c>
       <c r="B28" s="99" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D28" s="85"/>
       <c r="E28" s="85">
@@ -12841,7 +12841,7 @@
       </c>
       <c r="O28" t="str">
         <f t="shared" si="1"/>
-        <v>23BME14</v>
+        <v>22BME14</v>
       </c>
       <c r="P28" t="e">
         <f>#REF!</f>
@@ -12853,7 +12853,7 @@
       </c>
       <c r="S28" t="str">
         <f t="shared" si="2"/>
-        <v>23BME14</v>
+        <v>22BME14</v>
       </c>
       <c r="T28">
         <f t="shared" si="3"/>
@@ -12865,7 +12865,7 @@
       </c>
       <c r="W28" t="str">
         <f t="shared" si="4"/>
-        <v>23BME14</v>
+        <v>22BME14</v>
       </c>
       <c r="X28">
         <f t="shared" si="5"/>
@@ -12877,7 +12877,7 @@
       </c>
       <c r="AA28" t="str">
         <f t="shared" si="7"/>
-        <v>23BME14</v>
+        <v>22BME14</v>
       </c>
       <c r="AB28">
         <f t="shared" si="8"/>
@@ -12889,7 +12889,7 @@
       </c>
       <c r="AE28" t="str">
         <f t="shared" si="10"/>
-        <v>23BME14</v>
+        <v>22BME14</v>
       </c>
       <c r="AF28">
         <f t="shared" si="11"/>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="AI28" t="str">
         <f t="shared" si="13"/>
-        <v>23BME14</v>
+        <v>22BME14</v>
       </c>
       <c r="AJ28" t="e">
         <f>#REF!</f>
@@ -12913,7 +12913,7 @@
       </c>
       <c r="AM28" t="str">
         <f t="shared" si="14"/>
-        <v>23BME14</v>
+        <v>22BME14</v>
       </c>
       <c r="AN28" t="e">
         <f>#REF!</f>
@@ -12929,10 +12929,10 @@
         <v>14</v>
       </c>
       <c r="B29" s="100" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="D29" s="85"/>
       <c r="E29" s="85">
@@ -12956,7 +12956,7 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" si="1"/>
-        <v>23BME15</v>
+        <v>22BME15</v>
       </c>
       <c r="P29" t="e">
         <f>#REF!</f>
@@ -12968,7 +12968,7 @@
       </c>
       <c r="S29" t="str">
         <f t="shared" si="2"/>
-        <v>23BME15</v>
+        <v>22BME15</v>
       </c>
       <c r="T29">
         <f t="shared" si="3"/>
@@ -12980,7 +12980,7 @@
       </c>
       <c r="W29" t="str">
         <f t="shared" si="4"/>
-        <v>23BME15</v>
+        <v>22BME15</v>
       </c>
       <c r="X29">
         <f t="shared" si="5"/>
@@ -12992,7 +12992,7 @@
       </c>
       <c r="AA29" t="str">
         <f t="shared" si="7"/>
-        <v>23BME15</v>
+        <v>22BME15</v>
       </c>
       <c r="AB29">
         <f t="shared" si="8"/>
@@ -13004,7 +13004,7 @@
       </c>
       <c r="AE29" t="str">
         <f t="shared" si="10"/>
-        <v>23BME15</v>
+        <v>22BME15</v>
       </c>
       <c r="AF29">
         <f t="shared" si="11"/>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="AI29" t="str">
         <f t="shared" si="13"/>
-        <v>23BME15</v>
+        <v>22BME15</v>
       </c>
       <c r="AJ29" t="e">
         <f>#REF!</f>
@@ -13028,7 +13028,7 @@
       </c>
       <c r="AM29" t="str">
         <f t="shared" si="14"/>
-        <v>23BME15</v>
+        <v>22BME15</v>
       </c>
       <c r="AN29" t="e">
         <f>#REF!</f>
@@ -13044,10 +13044,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="100" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D30" s="85"/>
       <c r="E30" s="85">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="O30" t="str">
         <f t="shared" si="1"/>
-        <v>23BME16</v>
+        <v>22BME16</v>
       </c>
       <c r="P30" t="e">
         <f>#REF!</f>
@@ -13083,7 +13083,7 @@
       </c>
       <c r="S30" t="str">
         <f t="shared" si="2"/>
-        <v>23BME16</v>
+        <v>22BME16</v>
       </c>
       <c r="T30">
         <f t="shared" si="3"/>
@@ -13095,7 +13095,7 @@
       </c>
       <c r="W30" t="str">
         <f t="shared" si="4"/>
-        <v>23BME16</v>
+        <v>22BME16</v>
       </c>
       <c r="X30">
         <f t="shared" si="5"/>
@@ -13107,7 +13107,7 @@
       </c>
       <c r="AA30" t="str">
         <f t="shared" si="7"/>
-        <v>23BME16</v>
+        <v>22BME16</v>
       </c>
       <c r="AB30">
         <f t="shared" si="8"/>
@@ -13119,7 +13119,7 @@
       </c>
       <c r="AE30" t="str">
         <f t="shared" si="10"/>
-        <v>23BME16</v>
+        <v>22BME16</v>
       </c>
       <c r="AF30">
         <f t="shared" si="11"/>
@@ -13131,7 +13131,7 @@
       </c>
       <c r="AI30" t="str">
         <f t="shared" si="13"/>
-        <v>23BME16</v>
+        <v>22BME16</v>
       </c>
       <c r="AJ30" t="e">
         <f>#REF!</f>
@@ -13143,7 +13143,7 @@
       </c>
       <c r="AM30" t="str">
         <f t="shared" si="14"/>
-        <v>23BME16</v>
+        <v>22BME16</v>
       </c>
       <c r="AN30" t="e">
         <f>#REF!</f>
@@ -13159,10 +13159,10 @@
         <v>16</v>
       </c>
       <c r="B31" s="100" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D31" s="85"/>
       <c r="E31" s="85">
@@ -13186,7 +13186,7 @@
       </c>
       <c r="O31" t="str">
         <f t="shared" si="1"/>
-        <v>23BME17</v>
+        <v>22BME17</v>
       </c>
       <c r="P31" t="e">
         <f>#REF!</f>
@@ -13198,7 +13198,7 @@
       </c>
       <c r="S31" t="str">
         <f t="shared" si="2"/>
-        <v>23BME17</v>
+        <v>22BME17</v>
       </c>
       <c r="T31">
         <f t="shared" si="3"/>
@@ -13210,7 +13210,7 @@
       </c>
       <c r="W31" t="str">
         <f t="shared" si="4"/>
-        <v>23BME17</v>
+        <v>22BME17</v>
       </c>
       <c r="X31">
         <f t="shared" si="5"/>
@@ -13222,7 +13222,7 @@
       </c>
       <c r="AA31" t="str">
         <f t="shared" si="7"/>
-        <v>23BME17</v>
+        <v>22BME17</v>
       </c>
       <c r="AB31">
         <f t="shared" si="8"/>
@@ -13234,7 +13234,7 @@
       </c>
       <c r="AE31" t="str">
         <f t="shared" si="10"/>
-        <v>23BME17</v>
+        <v>22BME17</v>
       </c>
       <c r="AF31">
         <f t="shared" si="11"/>
@@ -13246,7 +13246,7 @@
       </c>
       <c r="AI31" t="str">
         <f t="shared" si="13"/>
-        <v>23BME17</v>
+        <v>22BME17</v>
       </c>
       <c r="AJ31" t="e">
         <f>#REF!</f>
@@ -13258,7 +13258,7 @@
       </c>
       <c r="AM31" t="str">
         <f t="shared" si="14"/>
-        <v>23BME17</v>
+        <v>22BME17</v>
       </c>
       <c r="AN31" t="e">
         <f>#REF!</f>
@@ -13274,10 +13274,10 @@
         <v>17</v>
       </c>
       <c r="B32" s="99" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D32" s="85"/>
       <c r="E32" s="85">
@@ -13301,7 +13301,7 @@
       </c>
       <c r="O32" t="str">
         <f t="shared" si="1"/>
-        <v>23BME18</v>
+        <v>22BME18</v>
       </c>
       <c r="P32" t="e">
         <f>#REF!</f>
@@ -13313,7 +13313,7 @@
       </c>
       <c r="S32" t="str">
         <f t="shared" si="2"/>
-        <v>23BME18</v>
+        <v>22BME18</v>
       </c>
       <c r="T32">
         <f t="shared" si="3"/>
@@ -13325,7 +13325,7 @@
       </c>
       <c r="W32" t="str">
         <f t="shared" si="4"/>
-        <v>23BME18</v>
+        <v>22BME18</v>
       </c>
       <c r="X32">
         <f t="shared" si="5"/>
@@ -13337,7 +13337,7 @@
       </c>
       <c r="AA32" t="str">
         <f t="shared" si="7"/>
-        <v>23BME18</v>
+        <v>22BME18</v>
       </c>
       <c r="AB32">
         <f t="shared" si="8"/>
@@ -13349,7 +13349,7 @@
       </c>
       <c r="AE32" t="str">
         <f t="shared" si="10"/>
-        <v>23BME18</v>
+        <v>22BME18</v>
       </c>
       <c r="AF32">
         <f t="shared" si="11"/>
@@ -13361,7 +13361,7 @@
       </c>
       <c r="AI32" t="str">
         <f t="shared" si="13"/>
-        <v>23BME18</v>
+        <v>22BME18</v>
       </c>
       <c r="AJ32" t="e">
         <f>#REF!</f>
@@ -13373,7 +13373,7 @@
       </c>
       <c r="AM32" t="str">
         <f t="shared" si="14"/>
-        <v>23BME18</v>
+        <v>22BME18</v>
       </c>
       <c r="AN32" t="e">
         <f>#REF!</f>
@@ -13389,10 +13389,10 @@
         <v>18</v>
       </c>
       <c r="B33" s="100" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D33" s="85"/>
       <c r="E33" s="85">
@@ -13416,7 +13416,7 @@
       </c>
       <c r="O33" t="str">
         <f t="shared" si="1"/>
-        <v>23BME19</v>
+        <v>22BME19</v>
       </c>
       <c r="P33" t="e">
         <f>#REF!</f>
@@ -13428,7 +13428,7 @@
       </c>
       <c r="S33" t="str">
         <f t="shared" si="2"/>
-        <v>23BME19</v>
+        <v>22BME19</v>
       </c>
       <c r="T33">
         <f t="shared" si="3"/>
@@ -13440,7 +13440,7 @@
       </c>
       <c r="W33" t="str">
         <f t="shared" si="4"/>
-        <v>23BME19</v>
+        <v>22BME19</v>
       </c>
       <c r="X33">
         <f t="shared" si="5"/>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="AA33" t="str">
         <f t="shared" si="7"/>
-        <v>23BME19</v>
+        <v>22BME19</v>
       </c>
       <c r="AB33">
         <f t="shared" si="8"/>
@@ -13464,7 +13464,7 @@
       </c>
       <c r="AE33" t="str">
         <f t="shared" si="10"/>
-        <v>23BME19</v>
+        <v>22BME19</v>
       </c>
       <c r="AF33">
         <f t="shared" si="11"/>
@@ -13476,7 +13476,7 @@
       </c>
       <c r="AI33" t="str">
         <f t="shared" si="13"/>
-        <v>23BME19</v>
+        <v>22BME19</v>
       </c>
       <c r="AJ33" t="e">
         <f>#REF!</f>
@@ -13488,7 +13488,7 @@
       </c>
       <c r="AM33" t="str">
         <f t="shared" si="14"/>
-        <v>23BME19</v>
+        <v>22BME19</v>
       </c>
       <c r="AN33" t="e">
         <f>#REF!</f>
@@ -13504,10 +13504,10 @@
         <v>19</v>
       </c>
       <c r="B34" s="100" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D34" s="85"/>
       <c r="E34" s="85">
@@ -13531,7 +13531,7 @@
       </c>
       <c r="O34" t="str">
         <f t="shared" si="1"/>
-        <v>23BME21</v>
+        <v>22BME21</v>
       </c>
       <c r="P34" t="e">
         <f>#REF!</f>
@@ -13543,7 +13543,7 @@
       </c>
       <c r="S34" t="str">
         <f t="shared" si="2"/>
-        <v>23BME21</v>
+        <v>22BME21</v>
       </c>
       <c r="T34">
         <f t="shared" si="3"/>
@@ -13555,7 +13555,7 @@
       </c>
       <c r="W34" t="str">
         <f t="shared" si="4"/>
-        <v>23BME21</v>
+        <v>22BME21</v>
       </c>
       <c r="X34">
         <f t="shared" si="5"/>
@@ -13567,7 +13567,7 @@
       </c>
       <c r="AA34" t="str">
         <f t="shared" si="7"/>
-        <v>23BME21</v>
+        <v>22BME21</v>
       </c>
       <c r="AB34">
         <f t="shared" si="8"/>
@@ -13579,7 +13579,7 @@
       </c>
       <c r="AE34" t="str">
         <f t="shared" si="10"/>
-        <v>23BME21</v>
+        <v>22BME21</v>
       </c>
       <c r="AF34">
         <f t="shared" si="11"/>
@@ -13591,7 +13591,7 @@
       </c>
       <c r="AI34" t="str">
         <f t="shared" si="13"/>
-        <v>23BME21</v>
+        <v>22BME21</v>
       </c>
       <c r="AJ34" t="e">
         <f>#REF!</f>
@@ -13603,7 +13603,7 @@
       </c>
       <c r="AM34" t="str">
         <f t="shared" si="14"/>
-        <v>23BME21</v>
+        <v>22BME21</v>
       </c>
       <c r="AN34" t="e">
         <f>#REF!</f>
@@ -13619,10 +13619,10 @@
         <v>20</v>
       </c>
       <c r="B35" s="100" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D35" s="85"/>
       <c r="E35" s="85">
@@ -13646,7 +13646,7 @@
       </c>
       <c r="O35" t="str">
         <f t="shared" si="1"/>
-        <v>23BME22</v>
+        <v>22BME22</v>
       </c>
       <c r="P35" t="e">
         <f>#REF!</f>
@@ -13658,7 +13658,7 @@
       </c>
       <c r="S35" t="str">
         <f t="shared" si="2"/>
-        <v>23BME22</v>
+        <v>22BME22</v>
       </c>
       <c r="T35">
         <f t="shared" si="3"/>
@@ -13670,7 +13670,7 @@
       </c>
       <c r="W35" t="str">
         <f t="shared" si="4"/>
-        <v>23BME22</v>
+        <v>22BME22</v>
       </c>
       <c r="X35">
         <f t="shared" si="5"/>
@@ -13682,7 +13682,7 @@
       </c>
       <c r="AA35" t="str">
         <f t="shared" si="7"/>
-        <v>23BME22</v>
+        <v>22BME22</v>
       </c>
       <c r="AB35">
         <f t="shared" si="8"/>
@@ -13694,7 +13694,7 @@
       </c>
       <c r="AE35" t="str">
         <f t="shared" si="10"/>
-        <v>23BME22</v>
+        <v>22BME22</v>
       </c>
       <c r="AF35">
         <f t="shared" si="11"/>
@@ -13706,7 +13706,7 @@
       </c>
       <c r="AI35" t="str">
         <f t="shared" si="13"/>
-        <v>23BME22</v>
+        <v>22BME22</v>
       </c>
       <c r="AJ35" t="e">
         <f>#REF!</f>
@@ -13718,7 +13718,7 @@
       </c>
       <c r="AM35" t="str">
         <f t="shared" si="14"/>
-        <v>23BME22</v>
+        <v>22BME22</v>
       </c>
       <c r="AN35" t="e">
         <f>#REF!</f>
@@ -13734,10 +13734,10 @@
         <v>21</v>
       </c>
       <c r="B36" s="99" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D36" s="85"/>
       <c r="E36" s="85">
@@ -13761,7 +13761,7 @@
       </c>
       <c r="O36" t="str">
         <f t="shared" si="1"/>
-        <v>23BME24</v>
+        <v>22BME24</v>
       </c>
       <c r="P36" t="e">
         <f>#REF!</f>
@@ -13773,7 +13773,7 @@
       </c>
       <c r="S36" t="str">
         <f t="shared" si="2"/>
-        <v>23BME24</v>
+        <v>22BME24</v>
       </c>
       <c r="T36">
         <f t="shared" si="3"/>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="W36" t="str">
         <f t="shared" si="4"/>
-        <v>23BME24</v>
+        <v>22BME24</v>
       </c>
       <c r="X36">
         <f t="shared" si="5"/>
@@ -13797,7 +13797,7 @@
       </c>
       <c r="AA36" t="str">
         <f t="shared" si="7"/>
-        <v>23BME24</v>
+        <v>22BME24</v>
       </c>
       <c r="AB36">
         <f t="shared" si="8"/>
@@ -13809,7 +13809,7 @@
       </c>
       <c r="AE36" t="str">
         <f t="shared" si="10"/>
-        <v>23BME24</v>
+        <v>22BME24</v>
       </c>
       <c r="AF36">
         <f t="shared" si="11"/>
@@ -13821,7 +13821,7 @@
       </c>
       <c r="AI36" t="str">
         <f t="shared" si="13"/>
-        <v>23BME24</v>
+        <v>22BME24</v>
       </c>
       <c r="AJ36" t="e">
         <f>#REF!</f>
@@ -13833,7 +13833,7 @@
       </c>
       <c r="AM36" t="str">
         <f t="shared" si="14"/>
-        <v>23BME24</v>
+        <v>22BME24</v>
       </c>
       <c r="AN36" t="e">
         <f>#REF!</f>
@@ -13849,10 +13849,10 @@
         <v>22</v>
       </c>
       <c r="B37" s="100" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D37" s="85"/>
       <c r="E37" s="85">
@@ -13876,7 +13876,7 @@
       </c>
       <c r="O37" t="str">
         <f t="shared" si="1"/>
-        <v>23BME25</v>
+        <v>22BME25</v>
       </c>
       <c r="P37" t="e">
         <f>#REF!</f>
@@ -13888,7 +13888,7 @@
       </c>
       <c r="S37" t="str">
         <f t="shared" si="2"/>
-        <v>23BME25</v>
+        <v>22BME25</v>
       </c>
       <c r="T37">
         <f t="shared" si="3"/>
@@ -13900,7 +13900,7 @@
       </c>
       <c r="W37" t="str">
         <f t="shared" si="4"/>
-        <v>23BME25</v>
+        <v>22BME25</v>
       </c>
       <c r="X37">
         <f t="shared" si="5"/>
@@ -13912,7 +13912,7 @@
       </c>
       <c r="AA37" t="str">
         <f t="shared" si="7"/>
-        <v>23BME25</v>
+        <v>22BME25</v>
       </c>
       <c r="AB37">
         <f t="shared" si="8"/>
@@ -13924,7 +13924,7 @@
       </c>
       <c r="AE37" t="str">
         <f t="shared" si="10"/>
-        <v>23BME25</v>
+        <v>22BME25</v>
       </c>
       <c r="AF37">
         <f t="shared" si="11"/>
@@ -13936,7 +13936,7 @@
       </c>
       <c r="AI37" t="str">
         <f t="shared" si="13"/>
-        <v>23BME25</v>
+        <v>22BME25</v>
       </c>
       <c r="AJ37" t="e">
         <f>#REF!</f>
@@ -13948,7 +13948,7 @@
       </c>
       <c r="AM37" t="str">
         <f t="shared" si="14"/>
-        <v>23BME25</v>
+        <v>22BME25</v>
       </c>
       <c r="AN37" t="e">
         <f>#REF!</f>
@@ -13964,10 +13964,10 @@
         <v>23</v>
       </c>
       <c r="B38" s="100" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D38" s="85"/>
       <c r="E38" s="85">
@@ -13991,7 +13991,7 @@
       </c>
       <c r="O38" t="str">
         <f t="shared" si="1"/>
-        <v>23BME26</v>
+        <v>22BME26</v>
       </c>
       <c r="P38" t="e">
         <f>#REF!</f>
@@ -14003,7 +14003,7 @@
       </c>
       <c r="S38" t="str">
         <f t="shared" si="2"/>
-        <v>23BME26</v>
+        <v>22BME26</v>
       </c>
       <c r="T38">
         <f t="shared" si="3"/>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="W38" t="str">
         <f t="shared" si="4"/>
-        <v>23BME26</v>
+        <v>22BME26</v>
       </c>
       <c r="X38">
         <f t="shared" si="5"/>
@@ -14027,7 +14027,7 @@
       </c>
       <c r="AA38" t="str">
         <f t="shared" si="7"/>
-        <v>23BME26</v>
+        <v>22BME26</v>
       </c>
       <c r="AB38">
         <f t="shared" si="8"/>
@@ -14039,7 +14039,7 @@
       </c>
       <c r="AE38" t="str">
         <f t="shared" si="10"/>
-        <v>23BME26</v>
+        <v>22BME26</v>
       </c>
       <c r="AF38">
         <f t="shared" si="11"/>
@@ -14051,7 +14051,7 @@
       </c>
       <c r="AI38" t="str">
         <f t="shared" si="13"/>
-        <v>23BME26</v>
+        <v>22BME26</v>
       </c>
       <c r="AJ38" t="e">
         <f>#REF!</f>
@@ -14063,7 +14063,7 @@
       </c>
       <c r="AM38" t="str">
         <f t="shared" si="14"/>
-        <v>23BME26</v>
+        <v>22BME26</v>
       </c>
       <c r="AN38" t="e">
         <f>#REF!</f>
@@ -14079,10 +14079,10 @@
         <v>24</v>
       </c>
       <c r="B39" s="100" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D39" s="34"/>
       <c r="E39" s="85">
@@ -14122,10 +14122,10 @@
         <v>25</v>
       </c>
       <c r="B40" s="99" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D40" s="34"/>
       <c r="E40" s="85">
@@ -14165,10 +14165,10 @@
         <v>26</v>
       </c>
       <c r="B41" s="100" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D41" s="34"/>
       <c r="E41" s="85">
@@ -14208,10 +14208,10 @@
         <v>27</v>
       </c>
       <c r="B42" s="100" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D42" s="34"/>
       <c r="E42" s="85">
@@ -14251,10 +14251,10 @@
         <v>28</v>
       </c>
       <c r="B43" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="100" t="s">
-        <v>116</v>
+        <v>88</v>
+      </c>
+      <c r="C43" s="97" t="s">
+        <v>125</v>
       </c>
       <c r="D43" s="34"/>
       <c r="E43" s="85">
